--- a/Team-Data/2020-21/1-9-2020-21.xlsx
+++ b/Team-Data/2020-21/1-9-2020-21.xlsx
@@ -2195,7 +2195,7 @@
         <v>23</v>
       </c>
       <c r="CL2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CM2" t="n">
         <v>16</v>
@@ -2216,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="CS2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CT2" t="n">
         <v>6</v>
@@ -2328,7 +2328,7 @@
         <v>27</v>
       </c>
       <c r="EC2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="ED2" t="n">
         <v>10</v>
@@ -2640,7 +2640,7 @@
         <v>10</v>
       </c>
       <c r="HY2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="HZ2" t="n">
         <v>27</v>
@@ -3049,16 +3049,16 @@
         <v>110.7</v>
       </c>
       <c r="BN3" t="n">
-        <v>112.4</v>
+        <v>112.3</v>
       </c>
       <c r="BO3" t="n">
-        <v>108.2</v>
+        <v>108</v>
       </c>
       <c r="BP3" t="n">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="BQ3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="BR3" t="n">
         <v>2</v>
@@ -3073,13 +3073,13 @@
         <v>16.8</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.303</v>
+        <v>0.301</v>
       </c>
       <c r="BW3" t="n">
         <v>0.736</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.518</v>
+        <v>0.517</v>
       </c>
       <c r="BY3" t="n">
         <v>0.156</v>
@@ -3091,16 +3091,16 @@
         <v>0.577</v>
       </c>
       <c r="CB3" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="CC3" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="CD3" t="n">
-        <v>83.83</v>
+        <v>83.92</v>
       </c>
       <c r="CE3" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="CF3" t="n">
         <v>0.508</v>
@@ -3121,7 +3121,7 @@
         <v>5</v>
       </c>
       <c r="CL3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CM3" t="n">
         <v>17</v>
@@ -3157,7 +3157,7 @@
         <v>13</v>
       </c>
       <c r="CX3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="CY3" t="n">
         <v>12</v>
@@ -3203,7 +3203,7 @@
         <v>0.156</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.303</v>
+        <v>0.301</v>
       </c>
       <c r="DM3" t="n">
         <v>0.538</v>
@@ -3212,7 +3212,7 @@
         <v>0.266</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
       <c r="DP3" t="n">
         <v>0.264</v>
@@ -3518,7 +3518,7 @@
         <v>48</v>
       </c>
       <c r="HI3" t="n">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="HJ3" t="n">
         <v>33.6</v>
@@ -3648,16 +3648,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="IY3" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="IZ3" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="JA3" t="n">
         <v>23.1</v>
       </c>
       <c r="JB3" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="JC3" t="n">
         <v>7.8</v>
@@ -3735,7 +3735,7 @@
         <v>10</v>
       </c>
       <c r="KB3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="KC3" t="n">
         <v>16</v>
@@ -9386,16 +9386,16 @@
         <v>11.1</v>
       </c>
       <c r="S10" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T10" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U10" t="n">
         <v>23.9</v>
       </c>
       <c r="V10" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W10" t="n">
         <v>8.199999999999999</v>
@@ -9464,7 +9464,7 @@
         <v>6</v>
       </c>
       <c r="AS10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT10" t="n">
         <v>16</v>
@@ -9473,7 +9473,7 @@
         <v>20</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
         <v>12</v>
@@ -9528,19 +9528,19 @@
         <v>447</v>
       </c>
       <c r="BM10" t="n">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="BN10" t="n">
-        <v>107.4</v>
+        <v>107.3</v>
       </c>
       <c r="BO10" t="n">
         <v>111.2</v>
       </c>
       <c r="BP10" t="n">
-        <v>112.8</v>
+        <v>112.7</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-6.6</v>
+        <v>-6.7</v>
       </c>
       <c r="BR10" t="n">
         <v>-5.4</v>
@@ -9549,7 +9549,7 @@
         <v>0.601</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="BU10" t="n">
         <v>16.8</v>
@@ -9558,13 +9558,13 @@
         <v>0.275</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.739</v>
+        <v>0.741</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.487</v>
+        <v>0.488</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.135</v>
+        <v>0.136</v>
       </c>
       <c r="BZ10" t="n">
         <v>0.496</v>
@@ -9573,16 +9573,16 @@
         <v>0.538</v>
       </c>
       <c r="CB10" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="CC10" t="n">
-        <v>100.46</v>
+        <v>100.56</v>
       </c>
       <c r="CD10" t="n">
-        <v>83.70999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="CE10" t="n">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="CF10" t="n">
         <v>0.46</v>
@@ -9624,10 +9624,10 @@
         <v>10</v>
       </c>
       <c r="CS10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="CT10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="CU10" t="n">
         <v>8</v>
@@ -9639,7 +9639,7 @@
         <v>27</v>
       </c>
       <c r="CX10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CY10" t="n">
         <v>28</v>
@@ -9682,7 +9682,7 @@
         <v>0.249</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.135</v>
+        <v>0.136</v>
       </c>
       <c r="DL10" t="n">
         <v>0.275</v>
@@ -9697,7 +9697,7 @@
         <v>0.166</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.261</v>
+        <v>0.259</v>
       </c>
       <c r="DQ10" t="n">
         <v>14</v>
@@ -9736,7 +9736,7 @@
         <v>3</v>
       </c>
       <c r="EC10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="ED10" t="n">
         <v>10</v>
@@ -10000,13 +10000,13 @@
         <v>49.7</v>
       </c>
       <c r="HI10" t="n">
-        <v>112.8</v>
+        <v>112.7</v>
       </c>
       <c r="HJ10" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="HK10" t="n">
-        <v>0.739</v>
+        <v>0.741</v>
       </c>
       <c r="HL10" t="n">
         <v>8.199999999999999</v>
@@ -10045,10 +10045,10 @@
         <v>25</v>
       </c>
       <c r="HX10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HY10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="HZ10" t="n">
         <v>12</v>
@@ -12069,7 +12069,7 @@
         <v>4</v>
       </c>
       <c r="KB12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="KC12" t="n">
         <v>13</v>
@@ -12405,7 +12405,7 @@
         <v>15</v>
       </c>
       <c r="CT13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CU13" t="n">
         <v>5</v>
@@ -12417,7 +12417,7 @@
         <v>9</v>
       </c>
       <c r="CX13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CY13" t="n">
         <v>8</v>
@@ -15195,7 +15195,7 @@
         <v>28</v>
       </c>
       <c r="CX16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CY16" t="n">
         <v>23</v>
@@ -16106,7 +16106,7 @@
         <v>30</v>
       </c>
       <c r="CS17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CT17" t="n">
         <v>14</v>
@@ -16218,7 +16218,7 @@
         <v>19</v>
       </c>
       <c r="EC17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="ED17" t="n">
         <v>10</v>
@@ -16530,7 +16530,7 @@
         <v>6</v>
       </c>
       <c r="HY17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="HZ17" t="n">
         <v>21</v>
@@ -23493,7 +23493,7 @@
         <v>2</v>
       </c>
       <c r="CL25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CM25" t="n">
         <v>6</v>
@@ -28910,7 +28910,7 @@
         <v>22</v>
       </c>
       <c r="AS31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT31" t="n">
         <v>29</v>
@@ -28919,7 +28919,7 @@
         <v>3</v>
       </c>
       <c r="AV31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW31" t="n">
         <v>17</v>
@@ -29491,7 +29491,7 @@
         <v>27</v>
       </c>
       <c r="HX31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="HY31" t="n">
         <v>8</v>

--- a/Team-Data/2020-21/1-9-2020-21.xlsx
+++ b/Team-Data/2020-21/1-9-2020-21.xlsx
@@ -733,160 +733,160 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.444</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>39.6</v>
+        <v>40.3</v>
       </c>
       <c r="J2" t="n">
         <v>88.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.445</v>
+        <v>0.453</v>
       </c>
       <c r="L2" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="M2" t="n">
-        <v>38.4</v>
+        <v>37.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.355</v>
+        <v>0.362</v>
       </c>
       <c r="O2" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="P2" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="S2" t="n">
-        <v>36.6</v>
+        <v>37.4</v>
       </c>
       <c r="T2" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="U2" t="n">
         <v>24.9</v>
       </c>
       <c r="V2" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W2" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="X2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="Z2" t="n">
         <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.1</v>
+        <v>115.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="AD2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE2" t="n">
         <v>14</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK2" t="n">
         <v>18</v>
       </c>
-      <c r="AF2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH2" t="n">
+      <c r="AL2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN2" t="n">
         <v>15</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>20</v>
       </c>
       <c r="AO2" t="n">
         <v>1</v>
       </c>
       <c r="AP2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT2" t="n">
         <v>1</v>
       </c>
-      <c r="AS2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2</v>
-      </c>
       <c r="AU2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
         <v>27</v>
       </c>
       <c r="AX2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY2" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BC2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -999,25 +999,25 @@
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>15</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>14</v>
       </c>
       <c r="AK3" t="n">
         <v>7</v>
       </c>
       <c r="AL3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
         <v>25</v>
@@ -1026,22 +1026,22 @@
         <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>24</v>
@@ -1050,25 +1050,25 @@
         <v>23</v>
       </c>
       <c r="AW3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
         <v>3</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>20</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -1178,13 +1178,13 @@
         <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>12</v>
@@ -1193,10 +1193,10 @@
         <v>8</v>
       </c>
       <c r="AJ4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL4" t="n">
         <v>6</v>
@@ -1217,16 +1217,16 @@
         <v>6</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
         <v>26</v>
@@ -1244,7 +1244,7 @@
         <v>10</v>
       </c>
       <c r="BA4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB4" t="n">
         <v>3</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -1279,106 +1279,106 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J5" t="n">
-        <v>87.59999999999999</v>
+        <v>88.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.445</v>
+        <v>0.438</v>
       </c>
       <c r="L5" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="M5" t="n">
-        <v>36</v>
+        <v>36.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.364</v>
+        <v>0.355</v>
       </c>
       <c r="O5" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P5" t="n">
         <v>23.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.733</v>
+        <v>0.731</v>
       </c>
       <c r="R5" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="S5" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T5" t="n">
-        <v>44.5</v>
+        <v>44.9</v>
       </c>
       <c r="U5" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="V5" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W5" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X5" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>108.4</v>
+        <v>107.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.1</v>
+        <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
         <v>14</v>
@@ -1387,25 +1387,25 @@
         <v>13</v>
       </c>
       <c r="AN5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
         <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AS5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU5" t="n">
         <v>1</v>
@@ -1414,25 +1414,25 @@
         <v>21</v>
       </c>
       <c r="AW5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>13</v>
       </c>
-      <c r="AZ5" t="n">
-        <v>12</v>
-      </c>
       <c r="BA5" t="n">
+        <v>25</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC5" t="n">
         <v>22</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>24</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>16</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -1542,16 +1542,16 @@
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG6" t="n">
         <v>24</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>11</v>
@@ -1563,43 +1563,43 @@
         <v>13</v>
       </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM6" t="n">
         <v>14</v>
       </c>
       <c r="AN6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AU6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV6" t="n">
         <v>28</v>
       </c>
       <c r="AW6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY6" t="n">
         <v>9</v>
@@ -1611,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="BB6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC6" t="n">
         <v>26</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -1643,100 +1643,100 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0.556</v>
       </c>
       <c r="H7" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I7" t="n">
-        <v>39</v>
+        <v>39.3</v>
       </c>
       <c r="J7" t="n">
         <v>87.40000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.446</v>
+        <v>0.45</v>
       </c>
       <c r="L7" t="n">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="M7" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.347</v>
+        <v>0.355</v>
       </c>
       <c r="O7" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="P7" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.668</v>
+        <v>0.667</v>
       </c>
       <c r="R7" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="S7" t="n">
         <v>33.1</v>
       </c>
       <c r="T7" t="n">
-        <v>44.2</v>
+        <v>43.9</v>
       </c>
       <c r="U7" t="n">
-        <v>24.1</v>
+        <v>25</v>
       </c>
       <c r="V7" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="W7" t="n">
-        <v>10.4</v>
+        <v>10.9</v>
       </c>
       <c r="X7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.9</v>
+        <v>102.1</v>
       </c>
       <c r="AC7" t="n">
-        <v>-2.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
         <v>3</v>
       </c>
       <c r="AI7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
         <v>21</v>
@@ -1745,37 +1745,37 @@
         <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM7" t="n">
         <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>30</v>
       </c>
       <c r="AR7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU7" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AV7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW7" t="n">
         <v>1</v>
@@ -1784,19 +1784,19 @@
         <v>18</v>
       </c>
       <c r="AY7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -1825,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.556</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
         <v>48.6</v>
@@ -1843,142 +1843,142 @@
         <v>38.3</v>
       </c>
       <c r="J8" t="n">
-        <v>84.09999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.456</v>
+        <v>0.451</v>
       </c>
       <c r="L8" t="n">
-        <v>13.7</v>
+        <v>12.9</v>
       </c>
       <c r="M8" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.351</v>
+        <v>0.332</v>
       </c>
       <c r="O8" t="n">
-        <v>19.7</v>
+        <v>20.4</v>
       </c>
       <c r="P8" t="n">
-        <v>25.7</v>
+        <v>26.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R8" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="S8" t="n">
-        <v>35.2</v>
+        <v>34.9</v>
       </c>
       <c r="T8" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U8" t="n">
-        <v>22.6</v>
+        <v>22.3</v>
       </c>
       <c r="V8" t="n">
-        <v>13.8</v>
+        <v>13.3</v>
       </c>
       <c r="W8" t="n">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.8</v>
+        <v>22.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.9</v>
+        <v>23.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>110</v>
+        <v>109.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="AD8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE8" t="n">
         <v>14</v>
       </c>
-      <c r="AE8" t="n">
-        <v>9</v>
-      </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>5</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AK8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="n">
         <v>7</v>
       </c>
       <c r="AN8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR8" t="n">
         <v>22</v>
       </c>
-      <c r="AO8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>24</v>
-      </c>
       <c r="AS8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AX8" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AY8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -2007,130 +2007,130 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.444</v>
+        <v>0.375</v>
       </c>
       <c r="H9" t="n">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="I9" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="J9" t="n">
-        <v>87.90000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.489</v>
+        <v>0.488</v>
       </c>
       <c r="L9" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="M9" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="N9" t="n">
         <v>0.367</v>
       </c>
       <c r="O9" t="n">
-        <v>18.6</v>
+        <v>19.3</v>
       </c>
       <c r="P9" t="n">
-        <v>25</v>
+        <v>26.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.742</v>
+        <v>0.733</v>
       </c>
       <c r="R9" t="n">
-        <v>10.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S9" t="n">
-        <v>32.3</v>
+        <v>32.6</v>
       </c>
       <c r="T9" t="n">
-        <v>42.7</v>
+        <v>42.4</v>
       </c>
       <c r="U9" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="V9" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="W9" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="X9" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="Y9" t="n">
         <v>4.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>23.6</v>
+        <v>24.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>116.8</v>
+        <v>117</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AH9" t="n">
         <v>2</v>
       </c>
       <c r="AI9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK9" t="n">
         <v>4</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>3</v>
-      </c>
       <c r="AL9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AS9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AT9" t="n">
         <v>25</v>
@@ -2139,28 +2139,28 @@
         <v>2</v>
       </c>
       <c r="AV9" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY9" t="n">
         <v>10</v>
       </c>
       <c r="AZ9" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA9" t="n">
         <v>1</v>
       </c>
       <c r="BB9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -2234,16 +2234,16 @@
         <v>11.1</v>
       </c>
       <c r="S10" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T10" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U10" t="n">
         <v>23.9</v>
       </c>
       <c r="V10" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W10" t="n">
         <v>8.199999999999999</v>
@@ -2267,16 +2267,16 @@
         <v>-6.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>27</v>
       </c>
       <c r="AF10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH10" t="n">
         <v>1</v>
@@ -2291,52 +2291,52 @@
         <v>30</v>
       </c>
       <c r="AL10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO10" t="n">
         <v>13</v>
       </c>
-      <c r="AM10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>11</v>
-      </c>
       <c r="AP10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ10" t="n">
         <v>7</v>
       </c>
       <c r="AR10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY10" t="n">
         <v>26</v>
       </c>
-      <c r="AT10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AV10" t="n">
+      <c r="AZ10" t="n">
         <v>8</v>
       </c>
-      <c r="AW10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>9</v>
-      </c>
       <c r="BA10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB10" t="n">
         <v>17</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -2449,19 +2449,19 @@
         <v>-3.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
         <v>18</v>
@@ -2476,7 +2476,7 @@
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN11" t="n">
         <v>19</v>
@@ -2485,34 +2485,34 @@
         <v>2</v>
       </c>
       <c r="AP11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ11" t="n">
         <v>8</v>
       </c>
       <c r="AR11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AS11" t="n">
         <v>15</v>
       </c>
       <c r="AT11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AW11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
@@ -2521,7 +2521,7 @@
         <v>4</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
         <v>24</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -2631,16 +2631,16 @@
         <v>2.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
         <v>4</v>
@@ -2649,16 +2649,16 @@
         <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN12" t="n">
         <v>23</v>
@@ -2667,43 +2667,43 @@
         <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ12" t="n">
         <v>13</v>
       </c>
       <c r="AR12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU12" t="n">
         <v>23</v>
       </c>
       <c r="AV12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AW12" t="n">
         <v>20</v>
       </c>
       <c r="AX12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA12" t="n">
         <v>14</v>
       </c>
       <c r="BB12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -2735,94 +2735,94 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
         <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0.667</v>
+        <v>0.75</v>
       </c>
       <c r="H13" t="n">
         <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="J13" t="n">
-        <v>89.3</v>
+        <v>89</v>
       </c>
       <c r="K13" t="n">
-        <v>0.489</v>
+        <v>0.49</v>
       </c>
       <c r="L13" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="M13" t="n">
-        <v>33.4</v>
+        <v>34</v>
       </c>
       <c r="N13" t="n">
-        <v>0.369</v>
+        <v>0.364</v>
       </c>
       <c r="O13" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="P13" t="n">
-        <v>20.4</v>
+        <v>20</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.75</v>
+        <v>0.756</v>
       </c>
       <c r="R13" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="S13" t="n">
-        <v>34.4</v>
+        <v>33.9</v>
       </c>
       <c r="T13" t="n">
-        <v>42.2</v>
+        <v>41</v>
       </c>
       <c r="U13" t="n">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="V13" t="n">
-        <v>13.4</v>
+        <v>13.9</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="X13" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>115</v>
+        <v>114.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>5.1</v>
+        <v>6.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF13" t="n">
         <v>1</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AH13" t="n">
         <v>5</v>
@@ -2831,64 +2831,64 @@
         <v>2</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>18</v>
       </c>
-      <c r="AN13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>20</v>
-      </c>
       <c r="AR13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS13" t="n">
         <v>20</v>
       </c>
       <c r="AT13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AU13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX13" t="n">
         <v>6</v>
       </c>
       <c r="AY13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AZ13" t="n">
         <v>27</v>
       </c>
       <c r="BA13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BB13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -2998,31 +2998,31 @@
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL14" t="n">
         <v>7</v>
       </c>
       <c r="AM14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN14" t="n">
         <v>2</v>
@@ -3031,22 +3031,22 @@
         <v>18</v>
       </c>
       <c r="AP14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
       </c>
       <c r="AR14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AU14" t="n">
         <v>18</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>16</v>
       </c>
       <c r="AV14" t="n">
         <v>13</v>
@@ -3055,22 +3055,22 @@
         <v>23</v>
       </c>
       <c r="AX14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA14" t="n">
         <v>29</v>
       </c>
       <c r="BB14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BC14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -3183,13 +3183,13 @@
         <v>1</v>
       </c>
       <c r="AF15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
         <v>4</v>
@@ -3201,37 +3201,37 @@
         <v>2</v>
       </c>
       <c r="AL15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN15" t="n">
         <v>6</v>
       </c>
       <c r="AO15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP15" t="n">
         <v>22</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
@@ -3246,10 +3246,10 @@
         <v>7</v>
       </c>
       <c r="BA15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC15" t="n">
         <v>3</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -3359,40 +3359,40 @@
         <v>-4</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF16" t="n">
         <v>25</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>24</v>
       </c>
       <c r="AG16" t="n">
         <v>26</v>
       </c>
       <c r="AH16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
         <v>14</v>
       </c>
       <c r="AJ16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
         <v>21</v>
       </c>
       <c r="AN16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP16" t="n">
         <v>30</v>
@@ -3404,7 +3404,7 @@
         <v>11</v>
       </c>
       <c r="AS16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT16" t="n">
         <v>10</v>
@@ -3416,22 +3416,22 @@
         <v>17</v>
       </c>
       <c r="AW16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX16" t="n">
         <v>13</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA16" t="n">
         <v>30</v>
       </c>
       <c r="BB16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC16" t="n">
         <v>25</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -3463,160 +3463,160 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.429</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>39.1</v>
+        <v>38.1</v>
       </c>
       <c r="J17" t="n">
-        <v>81.5</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.48</v>
+        <v>0.478</v>
       </c>
       <c r="L17" t="n">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="M17" t="n">
-        <v>34.9</v>
+        <v>33.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>23</v>
+        <v>22.6</v>
       </c>
       <c r="Q17" t="n">
         <v>0.766</v>
       </c>
       <c r="R17" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="S17" t="n">
-        <v>37.8</v>
+        <v>35.9</v>
       </c>
       <c r="T17" t="n">
-        <v>43.9</v>
+        <v>41.4</v>
       </c>
       <c r="U17" t="n">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="V17" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="W17" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="X17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y17" t="n">
         <v>3.6</v>
       </c>
-      <c r="Y17" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Z17" t="n">
-        <v>20.6</v>
+        <v>20.1</v>
       </c>
       <c r="AA17" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>108.5</v>
+        <v>105.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.1</v>
+        <v>-1.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL17" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AM17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO17" t="n">
         <v>16</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AP17" t="n">
         <v>16</v>
       </c>
-      <c r="AO17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP17" t="n">
+      <c r="AQ17" t="n">
         <v>15</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AT17" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AU17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>30</v>
       </c>
       <c r="AW17" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AX17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB17" t="n">
         <v>27</v>
       </c>
-      <c r="AY17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>23</v>
-      </c>
       <c r="BC17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -3645,103 +3645,103 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6</v>
+        <v>0.556</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>44.9</v>
+        <v>45.8</v>
       </c>
       <c r="J18" t="n">
-        <v>91.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.493</v>
+        <v>0.498</v>
       </c>
       <c r="L18" t="n">
-        <v>16.6</v>
+        <v>17.1</v>
       </c>
       <c r="M18" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.414</v>
+        <v>0.422</v>
       </c>
       <c r="O18" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="P18" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.754</v>
+        <v>0.751</v>
       </c>
       <c r="R18" t="n">
         <v>10.6</v>
       </c>
       <c r="S18" t="n">
-        <v>37.2</v>
+        <v>37.6</v>
       </c>
       <c r="T18" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="U18" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="V18" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W18" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="X18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.7</v>
+        <v>20.3</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>122</v>
+        <v>124.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI18" t="n">
         <v>1</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AK18" t="n">
         <v>1</v>
@@ -3756,43 +3756,43 @@
         <v>1</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR18" t="n">
         <v>12</v>
       </c>
       <c r="AS18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX18" t="n">
         <v>18</v>
       </c>
       <c r="AY18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB18" t="n">
         <v>1</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -3827,106 +3827,106 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>0.222</v>
+        <v>0.25</v>
       </c>
       <c r="H19" t="n">
-        <v>48.6</v>
+        <v>48</v>
       </c>
       <c r="I19" t="n">
-        <v>41.4</v>
+        <v>40.6</v>
       </c>
       <c r="J19" t="n">
-        <v>92.7</v>
+        <v>92.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.447</v>
+        <v>0.44</v>
       </c>
       <c r="L19" t="n">
-        <v>11.8</v>
+        <v>11.4</v>
       </c>
       <c r="M19" t="n">
-        <v>35</v>
+        <v>35.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.337</v>
+        <v>0.319</v>
       </c>
       <c r="O19" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="P19" t="n">
-        <v>21.2</v>
+        <v>21.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.733</v>
+        <v>0.741</v>
       </c>
       <c r="R19" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S19" t="n">
-        <v>32.1</v>
+        <v>30.9</v>
       </c>
       <c r="T19" t="n">
-        <v>44.1</v>
+        <v>43</v>
       </c>
       <c r="U19" t="n">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="V19" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="W19" t="n">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="X19" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB19" t="n">
-        <v>110.2</v>
+        <v>108.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-12</v>
+        <v>-13.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE19" t="n">
         <v>27</v>
       </c>
       <c r="AF19" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH19" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AI19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AJ19" t="n">
         <v>4</v>
       </c>
       <c r="AK19" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
         <v>24</v>
@@ -3935,40 +3935,40 @@
         <v>15</v>
       </c>
       <c r="AN19" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AP19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
       </c>
       <c r="AT19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW19" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AX19" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AZ19" t="n">
         <v>21</v>
@@ -3977,7 +3977,7 @@
         <v>17</v>
       </c>
       <c r="BB19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BC19" t="n">
         <v>30</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -4087,25 +4087,25 @@
         <v>0.6</v>
       </c>
       <c r="AD20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="n">
         <v>14</v>
       </c>
-      <c r="AE20" t="n">
-        <v>18</v>
-      </c>
       <c r="AF20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
         <v>25</v>
       </c>
       <c r="AJ20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK20" t="n">
         <v>15</v>
@@ -4117,13 +4117,13 @@
         <v>22</v>
       </c>
       <c r="AN20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ20" t="n">
         <v>27</v>
@@ -4144,13 +4144,13 @@
         <v>27</v>
       </c>
       <c r="AW20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ20" t="n">
         <v>1</v>
@@ -4162,7 +4162,7 @@
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -4269,28 +4269,28 @@
         <v>-1.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
         <v>28</v>
@@ -4299,25 +4299,25 @@
         <v>30</v>
       </c>
       <c r="AN21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ21" t="n">
         <v>23</v>
       </c>
       <c r="AR21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS21" t="n">
         <v>9</v>
       </c>
       <c r="AT21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU21" t="n">
         <v>25</v>
@@ -4335,16 +4335,16 @@
         <v>29</v>
       </c>
       <c r="AZ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB21" t="n">
         <v>28</v>
       </c>
       <c r="BC21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -4451,31 +4451,31 @@
         <v>-6.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
         <v>30</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM22" t="n">
         <v>4</v>
@@ -4493,10 +4493,10 @@
         <v>29</v>
       </c>
       <c r="AR22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>11</v>
@@ -4514,16 +4514,16 @@
         <v>10</v>
       </c>
       <c r="AY22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA22" t="n">
         <v>24</v>
       </c>
       <c r="BB22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC22" t="n">
         <v>27</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -4555,100 +4555,100 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6</v>
+        <v>0.667</v>
       </c>
       <c r="H23" t="n">
         <v>48</v>
       </c>
       <c r="I23" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="J23" t="n">
-        <v>91.40000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L23" t="n">
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
       <c r="M23" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.322</v>
+        <v>0.337</v>
       </c>
       <c r="O23" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P23" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.824</v>
       </c>
       <c r="R23" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="S23" t="n">
-        <v>35.6</v>
+        <v>35.9</v>
       </c>
       <c r="T23" t="n">
-        <v>47.1</v>
+        <v>47.6</v>
       </c>
       <c r="U23" t="n">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="V23" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="W23" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>107.8</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH23" t="n">
         <v>13</v>
       </c>
-      <c r="W23" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="X23" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>106.8</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>15</v>
-      </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ23" t="n">
         <v>7</v>
@@ -4657,58 +4657,58 @@
         <v>29</v>
       </c>
       <c r="AL23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
         <v>28</v>
       </c>
       <c r="AN23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO23" t="n">
         <v>15</v>
       </c>
       <c r="AP23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU23" t="n">
         <v>30</v>
       </c>
       <c r="AV23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW23" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA23" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BB23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -4737,85 +4737,85 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>0.778</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="J24" t="n">
-        <v>87.40000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="K24" t="n">
-        <v>0.478</v>
+        <v>0.486</v>
       </c>
       <c r="L24" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="M24" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.375</v>
+        <v>0.383</v>
       </c>
       <c r="O24" t="n">
-        <v>17.5</v>
+        <v>18.8</v>
       </c>
       <c r="P24" t="n">
-        <v>23.2</v>
+        <v>24.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.754</v>
+        <v>0.761</v>
       </c>
       <c r="R24" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="S24" t="n">
-        <v>37.9</v>
+        <v>39</v>
       </c>
       <c r="T24" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="U24" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="V24" t="n">
         <v>17.4</v>
       </c>
       <c r="W24" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.2</v>
+        <v>22.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>113</v>
+        <v>114.1</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>1</v>
@@ -4827,70 +4827,70 @@
         <v>1</v>
       </c>
       <c r="AH24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI24" t="n">
         <v>9</v>
       </c>
       <c r="AJ24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AL24" t="n">
         <v>23</v>
       </c>
       <c r="AM24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO24" t="n">
         <v>11</v>
       </c>
-      <c r="AO24" t="n">
-        <v>15</v>
-      </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>17</v>
       </c>
       <c r="AR24" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AS24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV24" t="n">
         <v>29</v>
       </c>
       <c r="AW24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY24" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB24" t="n">
         <v>11</v>
       </c>
-      <c r="BB24" t="n">
-        <v>13</v>
-      </c>
       <c r="BC24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -4919,106 +4919,106 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7</v>
+        <v>0.667</v>
       </c>
       <c r="H25" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>40.4</v>
+        <v>39.8</v>
       </c>
       <c r="J25" t="n">
-        <v>85.8</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.471</v>
+        <v>0.469</v>
       </c>
       <c r="L25" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="M25" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="O25" t="n">
         <v>14.9</v>
       </c>
-      <c r="M25" t="n">
-        <v>39</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="O25" t="n">
-        <v>15.1</v>
-      </c>
       <c r="P25" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.825</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R25" t="n">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="S25" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="T25" t="n">
-        <v>42.4</v>
+        <v>42.7</v>
       </c>
       <c r="U25" t="n">
-        <v>26.4</v>
+        <v>25.7</v>
       </c>
       <c r="V25" t="n">
-        <v>13.3</v>
+        <v>14.4</v>
       </c>
       <c r="W25" t="n">
         <v>5.8</v>
       </c>
       <c r="X25" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.1</v>
+        <v>21.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>110.8</v>
+        <v>109.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK25" t="n">
         <v>12</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>11</v>
       </c>
       <c r="AL25" t="n">
         <v>5</v>
@@ -5027,52 +5027,52 @@
         <v>6</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP25" t="n">
         <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AR25" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AS25" t="n">
         <v>19</v>
       </c>
       <c r="AT25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AU25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC25" t="n">
         <v>6</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>19</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>4</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -5101,94 +5101,94 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.556</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="J26" t="n">
-        <v>92.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="K26" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L26" t="n">
         <v>16.3</v>
       </c>
       <c r="M26" t="n">
-        <v>42.3</v>
+        <v>42.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.386</v>
+        <v>0.382</v>
       </c>
       <c r="O26" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P26" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.791</v>
+        <v>0.781</v>
       </c>
       <c r="R26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="S26" t="n">
-        <v>36.4</v>
+        <v>35.9</v>
       </c>
       <c r="T26" t="n">
-        <v>44.7</v>
+        <v>44</v>
       </c>
       <c r="U26" t="n">
-        <v>22.7</v>
+        <v>22.3</v>
       </c>
       <c r="V26" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="W26" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.2</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>117.9</v>
+        <v>117</v>
       </c>
       <c r="AC26" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE26" t="n">
         <v>14</v>
       </c>
-      <c r="AE26" t="n">
-        <v>9</v>
-      </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
         <v>5</v>
@@ -5197,10 +5197,10 @@
         <v>12</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK26" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
         <v>2</v>
@@ -5209,43 +5209,43 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AP26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV26" t="n">
         <v>2</v>
       </c>
       <c r="AW26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY26" t="n">
         <v>21</v>
       </c>
       <c r="AZ26" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA26" t="n">
         <v>13</v>
@@ -5254,7 +5254,7 @@
         <v>4</v>
       </c>
       <c r="BC26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -5283,118 +5283,118 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4</v>
+        <v>0.444</v>
       </c>
       <c r="H27" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I27" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="J27" t="n">
-        <v>88.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.458</v>
+        <v>0.463</v>
       </c>
       <c r="L27" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="M27" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.352</v>
+        <v>0.361</v>
       </c>
       <c r="O27" t="n">
-        <v>20.4</v>
+        <v>19.9</v>
       </c>
       <c r="P27" t="n">
-        <v>28.5</v>
+        <v>27.8</v>
       </c>
       <c r="Q27" t="n">
         <v>0.716</v>
       </c>
       <c r="R27" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="S27" t="n">
-        <v>33.4</v>
+        <v>32.6</v>
       </c>
       <c r="T27" t="n">
-        <v>44.2</v>
+        <v>43.9</v>
       </c>
       <c r="U27" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="V27" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W27" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="X27" t="n">
         <v>5.3</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z27" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.8</v>
+        <v>21.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>112.4</v>
+        <v>113.9</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.6</v>
+        <v>-6.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI27" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AJ27" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
         <v>14</v>
       </c>
       <c r="AL27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM27" t="n">
         <v>27</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP27" t="n">
         <v>1</v>
@@ -5403,37 +5403,37 @@
         <v>26</v>
       </c>
       <c r="AR27" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AS27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW27" t="n">
         <v>24</v>
       </c>
-      <c r="AT27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>25</v>
-      </c>
       <c r="AX27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ27" t="n">
         <v>17</v>
       </c>
       <c r="BA27" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -5465,109 +5465,109 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
         <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.556</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
-        <v>48.6</v>
+        <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="J28" t="n">
-        <v>94.40000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.452</v>
+        <v>0.454</v>
       </c>
       <c r="L28" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="M28" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="N28" t="n">
         <v>0.405</v>
       </c>
       <c r="O28" t="n">
-        <v>15.8</v>
+        <v>14.8</v>
       </c>
       <c r="P28" t="n">
-        <v>20</v>
+        <v>18.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.789</v>
+        <v>0.781</v>
       </c>
       <c r="R28" t="n">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="S28" t="n">
         <v>36.1</v>
       </c>
       <c r="T28" t="n">
-        <v>45.4</v>
+        <v>45.1</v>
       </c>
       <c r="U28" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="V28" t="n">
-        <v>10.9</v>
+        <v>11.5</v>
       </c>
       <c r="W28" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X28" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Z28" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>113.7</v>
+        <v>112.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>-1.3</v>
+        <v>-1.9</v>
       </c>
       <c r="AD28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE28" t="n">
         <v>14</v>
       </c>
-      <c r="AE28" t="n">
-        <v>9</v>
-      </c>
       <c r="AF28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AI28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ28" t="n">
         <v>1</v>
       </c>
       <c r="AK28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM28" t="n">
         <v>26</v>
@@ -5576,34 +5576,34 @@
         <v>3</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AP28" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV28" t="n">
         <v>1</v>
       </c>
       <c r="AW28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX28" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AY28" t="n">
         <v>30</v>
@@ -5612,13 +5612,13 @@
         <v>4</v>
       </c>
       <c r="BA28" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC28" t="n">
         <v>21</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>12</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>18</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -5725,28 +5725,28 @@
         <v>-1.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="n">
         <v>27</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG29" t="n">
         <v>27</v>
       </c>
       <c r="AH29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL29" t="n">
         <v>4</v>
@@ -5755,16 +5755,16 @@
         <v>1</v>
       </c>
       <c r="AN29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR29" t="n">
         <v>16</v>
@@ -5773,13 +5773,13 @@
         <v>23</v>
       </c>
       <c r="AT29" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AU29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW29" t="n">
         <v>7</v>
@@ -5788,7 +5788,7 @@
         <v>8</v>
       </c>
       <c r="AY29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ29" t="n">
         <v>28</v>
@@ -5800,7 +5800,7 @@
         <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -5907,28 +5907,28 @@
         <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ30" t="n">
         <v>9</v>
       </c>
       <c r="AK30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL30" t="n">
         <v>3</v>
@@ -5937,19 +5937,19 @@
         <v>3</v>
       </c>
       <c r="AN30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ30" t="n">
         <v>28</v>
       </c>
       <c r="AR30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>5</v>
@@ -5973,16 +5973,16 @@
         <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB30" t="n">
         <v>18</v>
       </c>
       <c r="BC30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
@@ -6011,145 +6011,145 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2</v>
+        <v>0.222</v>
       </c>
       <c r="H31" t="n">
         <v>48</v>
       </c>
       <c r="I31" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="J31" t="n">
-        <v>91.90000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.473</v>
+        <v>0.477</v>
       </c>
       <c r="L31" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="M31" t="n">
-        <v>33.4</v>
+        <v>32.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O31" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P31" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="Q31" t="n">
         <v>0.751</v>
       </c>
       <c r="R31" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S31" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T31" t="n">
-        <v>41.8</v>
+        <v>42.1</v>
       </c>
       <c r="U31" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="V31" t="n">
-        <v>14.1</v>
+        <v>15</v>
       </c>
       <c r="W31" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X31" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="AA31" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>119.7</v>
+        <v>119.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>-3</v>
+        <v>-2.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>27</v>
       </c>
       <c r="AF31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI31" t="n">
         <v>3</v>
       </c>
       <c r="AJ31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL31" t="n">
         <v>16</v>
       </c>
       <c r="AM31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT31" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AU31" t="n">
         <v>3</v>
       </c>
       <c r="AV31" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AW31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6158,7 +6158,7 @@
         <v>30</v>
       </c>
       <c r="BA31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB31" t="n">
         <v>2</v>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-9-2020-21</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
